--- a/コンテンツ別累計推移表.xlsx
+++ b/コンテンツ別累計推移表.xlsx
@@ -441,552 +441,552 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>aigaのその月の売上合計</t>
+          <t>aiga売上</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>aigaの累計売上</t>
+          <t>aiga累計</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>aokiのその月の売上合計</t>
+          <t>aoki売上</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aokiの累計売上</t>
+          <t>aoki累計</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aquaのその月の売上合計</t>
+          <t>aqua売上</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>aquaの累計売上</t>
+          <t>aqua累計</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>aronのその月の売上合計</t>
+          <t>aron売上</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>aronの累計売上</t>
+          <t>aron累計</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>chigumiのその月の売上合計</t>
+          <t>chigumi売上</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>chigumiの累計売上</t>
+          <t>chigumi累計</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>chiharuのその月の売上合計</t>
+          <t>chiharu売上</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>chiharuの累計売上</t>
+          <t>chiharu累計</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>enseiのその月の売上合計</t>
+          <t>ensei売上</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>enseiの累計売上</t>
+          <t>ensei累計</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>fujitaのその月の売上合計</t>
+          <t>fujita売上</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>fujitaの累計売上</t>
+          <t>fujita累計</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>gyokuのその月の売上合計</t>
+          <t>gyoku売上</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>gyokuの累計売上</t>
+          <t>gyoku累計</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hakuryuのその月の売上合計</t>
+          <t>hakuryu売上</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>hakuryuの累計売上</t>
+          <t>hakuryu累計</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>hayukiのその月の売上合計</t>
+          <t>hayuki売上</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hayukiの累計売上</t>
+          <t>hayuki累計</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ikaiのその月の売上合計</t>
+          <t>ikai売上</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>ikaiの累計売上</t>
+          <t>ikai累計</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>joseのその月の売上合計</t>
+          <t>jose売上</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>joseの累計売上</t>
+          <t>jose累計</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>kairiのその月の売上合計</t>
+          <t>kairi売上</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>kairiの累計売上</t>
+          <t>kairi累計</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>kasyaのその月の売上合計</t>
+          <t>kasya売上</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>kasyaの累計売上</t>
+          <t>kasya累計</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>keitのその月の売上合計</t>
+          <t>keit売上</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>keitの累計売上</t>
+          <t>keit累計</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>kimyakuのその月の売上合計</t>
+          <t>kimyaku売上</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>kimyakuの累計売上</t>
+          <t>kimyaku累計</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>kireiのその月の売上合計</t>
+          <t>kirei売上</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>kireiの累計売上</t>
+          <t>kirei累計</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>klaraのその月の売上合計</t>
+          <t>klara売上</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>klaraの累計売上</t>
+          <t>klara累計</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>koyanagiのその月の売上合計</t>
+          <t>koyanagi売上</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>koyanagiの累計売上</t>
+          <t>koyanagi累計</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>lumikoのその月の売上合計</t>
+          <t>lumiko売上</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>lumikoの累計売上</t>
+          <t>lumiko累計</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>marilのその月の売上合計</t>
+          <t>maril売上</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>marilの累計売上</t>
+          <t>maril累計</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>matsuyama-kaironのその月の売上合計</t>
+          <t>matsuyama-kairon売上</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>matsuyama-kaironの累計売上</t>
+          <t>matsuyama-kairon累計</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>merisaのその月の売上合計</t>
+          <t>merisa売上</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>merisaの累計売上</t>
+          <t>merisa累計</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>mieshaのその月の売上合計</t>
+          <t>miesha売上</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>mieshaの累計売上</t>
+          <t>miesha累計</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>mikomariaのその月の売上合計</t>
+          <t>mikomaria売上</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>mikomariaの累計売上</t>
+          <t>mikomaria累計</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>mikuのその月の売上合計</t>
+          <t>miku売上</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>mikuの累計売上</t>
+          <t>miku累計</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>miyoko-syufuのその月の売上合計</t>
+          <t>miyoko-syufu売上</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>miyoko-syufuの累計売上</t>
+          <t>miyoko-syufu累計</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>miyoko-tirolのその月の売上合計</t>
+          <t>miyoko-tirol売上</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>miyoko-tirolの累計売上</t>
+          <t>miyoko-tirol累計</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>narusawaのその月の売上合計</t>
+          <t>narusawa売上</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>narusawaの累計売上</t>
+          <t>narusawa累計</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>niuのその月の売上合計</t>
+          <t>niu売上</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>niuの累計売上</t>
+          <t>niu累計</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>nodaのその月の売上合計</t>
+          <t>noda売上</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>nodaの累計売上</t>
+          <t>noda累計</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>okacのその月の売上合計</t>
+          <t>okac売上</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>okacの累計売上</t>
+          <t>okac累計</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>opheliaのその月の売上合計</t>
+          <t>ophelia売上</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>opheliaの累計売上</t>
+          <t>ophelia累計</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>reirinのその月の売上合計</t>
+          <t>reirin売上</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>reirinの累計売上</t>
+          <t>reirin累計</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>renriのその月の売上合計</t>
+          <t>renri売上</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>renriの累計売上</t>
+          <t>renri累計</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>rieのその月の売上合計</t>
+          <t>rie売上</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>rieの累計売上</t>
+          <t>rie累計</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>risuiのその月の売上合計</t>
+          <t>risui売上</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>risuiの累計売上</t>
+          <t>risui累計</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>shokitaのその月の売上合計</t>
+          <t>shokita売上</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>shokitaの累計売上</t>
+          <t>shokita累計</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>suganoのその月の売上合計</t>
+          <t>sugano売上</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>suganoの累計売上</t>
+          <t>sugano累計</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>syukiのその月の売上合計</t>
+          <t>syuki売上</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>syukiの累計売上</t>
+          <t>syuki累計</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>tnoelのその月の売上合計</t>
+          <t>tnoel売上</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>tnoelの累計売上</t>
+          <t>tnoel累計</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>tomokoのその月の売上合計</t>
+          <t>tomoko売上</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>tomokoの累計売上</t>
+          <t>tomoko累計</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>tsukikageのその月の売上合計</t>
+          <t>tsukikage売上</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>tsukikageの累計売上</t>
+          <t>tsukikage累計</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>yukiのその月の売上合計</t>
+          <t>yuki売上</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>yukiの累計売上</t>
+          <t>yuki累計</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>yuki-osajimaのその月の売上合計</t>
+          <t>yuki-osajima売上</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>yuki-osajimaの累計売上</t>
+          <t>yuki-osajima累計</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>あするのその月の売上合計</t>
+          <t>あする売上</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>あするの累計売上</t>
+          <t>あする累計</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>イエティのその月の売上合計</t>
+          <t>イエティ売上</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>イエティの累計売上</t>
+          <t>イエティ累計</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>カイロンのその月の売上合計</t>
+          <t>カイロン売上</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>カイロンの累計売上</t>
+          <t>カイロン累計</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>ハーメアのその月の売上合計</t>
+          <t>ハーメア売上</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>ハーメアの累計売上</t>
+          <t>ハーメア累計</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>ビジョナリーのその月の売上合計</t>
+          <t>ビジョナリー売上</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>ビジョナリーの累計売上</t>
+          <t>ビジョナリー累計</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>レッスンのその月の売上合計</t>
+          <t>レッスン売上</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>レッスンの累計売上</t>
+          <t>レッスン累計</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>大熊のその月の売上合計</t>
+          <t>大熊売上</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>大熊の累計売上</t>
+          <t>大熊累計</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>有泉恵子のその月の売上合計</t>
+          <t>有泉恵子売上</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>有泉恵子の累計売上</t>
+          <t>有泉恵子累計</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>本塚のその月の売上合計</t>
+          <t>本塚売上</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>本塚の累計売上</t>
+          <t>本塚累計</t>
         </is>
       </c>
     </row>
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308.2</v>
+        <v>339</v>
       </c>
       <c r="C2" t="n">
-        <v>308.2</v>
+        <v>339</v>
       </c>
       <c r="D2" t="n">
-        <v>868.6</v>
+        <v>958</v>
       </c>
       <c r="E2" t="n">
-        <v>868.6</v>
+        <v>958</v>
       </c>
       <c r="F2" t="n">
-        <v>150.6</v>
+        <v>166</v>
       </c>
       <c r="G2" t="n">
-        <v>150.6</v>
+        <v>166</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>925.3</v>
+        <v>1020</v>
       </c>
       <c r="DA2" t="n">
-        <v>925.3</v>
+        <v>1020</v>
       </c>
       <c r="DB2" t="n">
         <v>0</v>
@@ -1334,28 +1334,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>376.1</v>
+        <v>414</v>
       </c>
       <c r="C3" t="n">
-        <v>684.3</v>
+        <v>753</v>
       </c>
       <c r="D3" t="n">
-        <v>680.3</v>
+        <v>750</v>
       </c>
       <c r="E3" t="n">
-        <v>1548.9</v>
+        <v>1708</v>
       </c>
       <c r="F3" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>152.4</v>
+        <v>168</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>111.9</v>
+        <v>124</v>
       </c>
       <c r="O3" t="n">
-        <v>111.9</v>
+        <v>124</v>
       </c>
       <c r="P3" t="n">
-        <v>165.8</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.8</v>
+        <v>183</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1388,46 +1388,46 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>280.3</v>
+        <v>310</v>
       </c>
       <c r="U3" t="n">
-        <v>280.3</v>
+        <v>310</v>
       </c>
       <c r="V3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="W3" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="X3" t="n">
-        <v>248.6</v>
+        <v>274</v>
       </c>
       <c r="Y3" t="n">
-        <v>248.6</v>
+        <v>274</v>
       </c>
       <c r="Z3" t="n">
-        <v>67.7</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="n">
-        <v>67.7</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.5</v>
+        <v>193</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.5</v>
+        <v>193</v>
       </c>
       <c r="AD3" t="n">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="AE3" t="n">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="AF3" t="n">
-        <v>62.2</v>
+        <v>68</v>
       </c>
       <c r="AG3" t="n">
-        <v>62.2</v>
+        <v>68</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -1436,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>193.3</v>
+        <v>213</v>
       </c>
       <c r="AK3" t="n">
-        <v>193.3</v>
+        <v>213</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
@@ -1448,100 +1448,100 @@
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>56.7</v>
+        <v>63</v>
       </c>
       <c r="AO3" t="n">
-        <v>56.7</v>
+        <v>63</v>
       </c>
       <c r="AP3" t="n">
-        <v>61.1</v>
+        <v>67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>61.1</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
-        <v>25.9</v>
+        <v>29</v>
       </c>
       <c r="AS3" t="n">
-        <v>25.9</v>
+        <v>29</v>
       </c>
       <c r="AT3" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="AU3" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX3" t="n">
-        <v>131.4</v>
+        <v>145</v>
       </c>
       <c r="AY3" t="n">
-        <v>131.4</v>
+        <v>145</v>
       </c>
       <c r="AZ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB3" t="n">
-        <v>223.3</v>
+        <v>246</v>
       </c>
       <c r="BC3" t="n">
-        <v>223.3</v>
+        <v>246</v>
       </c>
       <c r="BD3" t="n">
-        <v>1899.7</v>
+        <v>2094</v>
       </c>
       <c r="BE3" t="n">
-        <v>1899.7</v>
+        <v>2094</v>
       </c>
       <c r="BF3" t="n">
-        <v>1899.7</v>
+        <v>2094</v>
       </c>
       <c r="BG3" t="n">
-        <v>1899.7</v>
+        <v>2094</v>
       </c>
       <c r="BH3" t="n">
-        <v>40.7</v>
+        <v>45</v>
       </c>
       <c r="BI3" t="n">
-        <v>40.7</v>
+        <v>45</v>
       </c>
       <c r="BJ3" t="n">
-        <v>209.2</v>
+        <v>230</v>
       </c>
       <c r="BK3" t="n">
-        <v>209.2</v>
+        <v>230</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="BN3" t="n">
-        <v>161.5</v>
+        <v>179</v>
       </c>
       <c r="BO3" t="n">
-        <v>161.5</v>
+        <v>179</v>
       </c>
       <c r="BP3" t="n">
-        <v>425.2</v>
+        <v>469</v>
       </c>
       <c r="BQ3" t="n">
-        <v>425.2</v>
+        <v>469</v>
       </c>
       <c r="BR3" t="n">
-        <v>327.7</v>
+        <v>362</v>
       </c>
       <c r="BS3" t="n">
-        <v>327.7</v>
+        <v>362</v>
       </c>
       <c r="BT3" t="n">
         <v>0</v>
@@ -1562,106 +1562,106 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>33.6</v>
+        <v>39</v>
       </c>
       <c r="CA3" t="n">
-        <v>33.6</v>
+        <v>39</v>
       </c>
       <c r="CB3" t="n">
-        <v>75.40000000000001</v>
+        <v>83</v>
       </c>
       <c r="CC3" t="n">
-        <v>75.40000000000001</v>
+        <v>83</v>
       </c>
       <c r="CD3" t="n">
-        <v>216.6</v>
+        <v>239</v>
       </c>
       <c r="CE3" t="n">
-        <v>216.6</v>
+        <v>239</v>
       </c>
       <c r="CF3" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="CG3" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="CH3" t="n">
-        <v>63.6</v>
+        <v>70</v>
       </c>
       <c r="CI3" t="n">
-        <v>63.6</v>
+        <v>70</v>
       </c>
       <c r="CJ3" t="n">
-        <v>157.6</v>
+        <v>173</v>
       </c>
       <c r="CK3" t="n">
-        <v>157.6</v>
+        <v>173</v>
       </c>
       <c r="CL3" t="n">
-        <v>16.6</v>
+        <v>19</v>
       </c>
       <c r="CM3" t="n">
-        <v>16.6</v>
+        <v>19</v>
       </c>
       <c r="CN3" t="n">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="CO3" t="n">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="CP3" t="n">
-        <v>121.7</v>
+        <v>135</v>
       </c>
       <c r="CQ3" t="n">
-        <v>121.7</v>
+        <v>135</v>
       </c>
       <c r="CR3" t="n">
-        <v>170.8</v>
+        <v>188</v>
       </c>
       <c r="CS3" t="n">
-        <v>170.8</v>
+        <v>188</v>
       </c>
       <c r="CT3" t="n">
-        <v>175.8</v>
+        <v>193</v>
       </c>
       <c r="CU3" t="n">
-        <v>175.8</v>
+        <v>193</v>
       </c>
       <c r="CV3" t="n">
-        <v>2278.6</v>
+        <v>2511</v>
       </c>
       <c r="CW3" t="n">
-        <v>2278.6</v>
+        <v>2511</v>
       </c>
       <c r="CX3" t="n">
-        <v>10517</v>
+        <v>11595</v>
       </c>
       <c r="CY3" t="n">
-        <v>10517</v>
+        <v>11595</v>
       </c>
       <c r="CZ3" t="n">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="DA3" t="n">
-        <v>1332.3</v>
+        <v>1471</v>
       </c>
       <c r="DB3" t="n">
-        <v>190.1</v>
+        <v>210</v>
       </c>
       <c r="DC3" t="n">
-        <v>190.1</v>
+        <v>210</v>
       </c>
       <c r="DD3" t="n">
-        <v>4290.7</v>
+        <v>4731</v>
       </c>
       <c r="DE3" t="n">
-        <v>4290.7</v>
+        <v>4731</v>
       </c>
       <c r="DF3" t="n">
-        <v>462.2</v>
+        <v>506</v>
       </c>
       <c r="DG3" t="n">
-        <v>462.2</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4">
@@ -1671,100 +1671,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.3</v>
+        <v>79</v>
       </c>
       <c r="C4" t="n">
-        <v>756.5999999999999</v>
+        <v>832</v>
       </c>
       <c r="D4" t="n">
-        <v>102.2</v>
+        <v>113</v>
       </c>
       <c r="E4" t="n">
-        <v>1651.1</v>
+        <v>1821</v>
       </c>
       <c r="F4" t="n">
-        <v>40.8</v>
+        <v>45</v>
       </c>
       <c r="G4" t="n">
-        <v>193.2</v>
+        <v>213</v>
       </c>
       <c r="H4" t="n">
-        <v>108.5</v>
+        <v>119</v>
       </c>
       <c r="I4" t="n">
-        <v>111.8</v>
+        <v>122</v>
       </c>
       <c r="J4" t="n">
-        <v>35.4</v>
+        <v>39</v>
       </c>
       <c r="K4" t="n">
-        <v>35.4</v>
+        <v>39</v>
       </c>
       <c r="L4" t="n">
-        <v>75.8</v>
+        <v>84</v>
       </c>
       <c r="M4" t="n">
-        <v>76.7</v>
+        <v>85</v>
       </c>
       <c r="N4" t="n">
-        <v>145.9</v>
+        <v>161</v>
       </c>
       <c r="O4" t="n">
-        <v>257.8</v>
+        <v>285</v>
       </c>
       <c r="P4" t="n">
-        <v>171.1</v>
+        <v>189</v>
       </c>
       <c r="Q4" t="n">
-        <v>336.9</v>
+        <v>372</v>
       </c>
       <c r="R4" t="n">
-        <v>191.6</v>
+        <v>212</v>
       </c>
       <c r="S4" t="n">
-        <v>191.6</v>
+        <v>212</v>
       </c>
       <c r="T4" t="n">
-        <v>122.4</v>
+        <v>135</v>
       </c>
       <c r="U4" t="n">
-        <v>402.7</v>
+        <v>445</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>45.3</v>
+        <v>49</v>
       </c>
       <c r="X4" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Y4" t="n">
-        <v>311.6</v>
+        <v>343</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.10000000000001</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.2</v>
+        <v>194</v>
       </c>
       <c r="AD4" t="n">
-        <v>372.9</v>
+        <v>411</v>
       </c>
       <c r="AE4" t="n">
-        <v>516.9</v>
+        <v>570</v>
       </c>
       <c r="AF4" t="n">
-        <v>112.9</v>
+        <v>125</v>
       </c>
       <c r="AG4" t="n">
-        <v>175.1</v>
+        <v>193</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>193.3</v>
+        <v>213</v>
       </c>
       <c r="AL4" t="n">
         <v>0</v>
@@ -1785,100 +1785,100 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>205.8</v>
+        <v>227</v>
       </c>
       <c r="AO4" t="n">
-        <v>262.5</v>
+        <v>290</v>
       </c>
       <c r="AP4" t="n">
-        <v>293.6</v>
+        <v>325</v>
       </c>
       <c r="AQ4" t="n">
-        <v>354.7</v>
+        <v>392</v>
       </c>
       <c r="AR4" t="n">
-        <v>102.7</v>
+        <v>113</v>
       </c>
       <c r="AS4" t="n">
-        <v>128.6</v>
+        <v>142</v>
       </c>
       <c r="AT4" t="n">
-        <v>62.4</v>
+        <v>69</v>
       </c>
       <c r="AU4" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
       </c>
       <c r="AW4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX4" t="n">
         <v>24</v>
       </c>
-      <c r="AX4" t="n">
-        <v>22.4</v>
-      </c>
       <c r="AY4" t="n">
-        <v>153.8</v>
+        <v>169</v>
       </c>
       <c r="AZ4" t="n">
-        <v>58.5</v>
+        <v>64</v>
       </c>
       <c r="BA4" t="n">
-        <v>68.5</v>
+        <v>75</v>
       </c>
       <c r="BB4" t="n">
-        <v>93.3</v>
+        <v>103</v>
       </c>
       <c r="BC4" t="n">
-        <v>316.6</v>
+        <v>349</v>
       </c>
       <c r="BD4" t="n">
-        <v>1695.2</v>
+        <v>1868</v>
       </c>
       <c r="BE4" t="n">
-        <v>3594.9</v>
+        <v>3962</v>
       </c>
       <c r="BF4" t="n">
-        <v>1695.2</v>
+        <v>1868</v>
       </c>
       <c r="BG4" t="n">
-        <v>3594.9</v>
+        <v>3962</v>
       </c>
       <c r="BH4" t="n">
-        <v>182.6</v>
+        <v>201</v>
       </c>
       <c r="BI4" t="n">
-        <v>223.3</v>
+        <v>246</v>
       </c>
       <c r="BJ4" t="n">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="BK4" t="n">
-        <v>440.2</v>
+        <v>485</v>
       </c>
       <c r="BL4" t="n">
         <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="BO4" t="n">
-        <v>162.4</v>
+        <v>180</v>
       </c>
       <c r="BP4" t="n">
-        <v>455.4</v>
+        <v>502</v>
       </c>
       <c r="BQ4" t="n">
-        <v>880.5999999999999</v>
+        <v>971</v>
       </c>
       <c r="BR4" t="n">
-        <v>77.8</v>
+        <v>86</v>
       </c>
       <c r="BS4" t="n">
-        <v>405.5</v>
+        <v>448</v>
       </c>
       <c r="BT4" t="n">
         <v>0</v>
@@ -1887,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>72.8</v>
+        <v>80</v>
       </c>
       <c r="BW4" t="n">
-        <v>72.8</v>
+        <v>80</v>
       </c>
       <c r="BX4" t="n">
         <v>0</v>
@@ -1899,106 +1899,106 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>210.3</v>
+        <v>232</v>
       </c>
       <c r="CA4" t="n">
-        <v>243.9</v>
+        <v>271</v>
       </c>
       <c r="CB4" t="n">
-        <v>299.4</v>
+        <v>330</v>
       </c>
       <c r="CC4" t="n">
-        <v>374.8</v>
+        <v>413</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="CE4" t="n">
-        <v>217.3</v>
+        <v>240</v>
       </c>
       <c r="CF4" t="n">
-        <v>32.2</v>
+        <v>35</v>
       </c>
       <c r="CG4" t="n">
-        <v>101.2</v>
+        <v>111</v>
       </c>
       <c r="CH4" t="n">
-        <v>249.3</v>
+        <v>274</v>
       </c>
       <c r="CI4" t="n">
-        <v>312.9</v>
+        <v>344</v>
       </c>
       <c r="CJ4" t="n">
-        <v>241.4</v>
+        <v>266</v>
       </c>
       <c r="CK4" t="n">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="CL4" t="n">
-        <v>218.4</v>
+        <v>241</v>
       </c>
       <c r="CM4" t="n">
+        <v>260</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>159</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>171</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>114</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>249</v>
+      </c>
+      <c r="CR4" t="n">
         <v>235</v>
       </c>
-      <c r="CN4" t="n">
-        <v>145.6</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>156.7</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>103.4</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>225.1</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>213</v>
-      </c>
       <c r="CS4" t="n">
-        <v>383.8</v>
+        <v>423</v>
       </c>
       <c r="CT4" t="n">
-        <v>432.4</v>
+        <v>477</v>
       </c>
       <c r="CU4" t="n">
-        <v>608.1999999999999</v>
+        <v>670</v>
       </c>
       <c r="CV4" t="n">
-        <v>2112</v>
+        <v>2326</v>
       </c>
       <c r="CW4" t="n">
-        <v>4390.6</v>
+        <v>4837</v>
       </c>
       <c r="CX4" t="n">
-        <v>7728</v>
+        <v>8519</v>
       </c>
       <c r="CY4" t="n">
-        <v>7728</v>
+        <v>8519</v>
       </c>
       <c r="CZ4" t="n">
-        <v>926.3</v>
+        <v>1019</v>
       </c>
       <c r="DA4" t="n">
-        <v>2258.6</v>
+        <v>2490</v>
       </c>
       <c r="DB4" t="n">
-        <v>113.7</v>
+        <v>127</v>
       </c>
       <c r="DC4" t="n">
-        <v>303.8</v>
+        <v>337</v>
       </c>
       <c r="DD4" t="n">
-        <v>3178.6</v>
+        <v>3502</v>
       </c>
       <c r="DE4" t="n">
-        <v>7469.299999999999</v>
+        <v>8233</v>
       </c>
       <c r="DF4" t="n">
-        <v>328.2</v>
+        <v>360</v>
       </c>
       <c r="DG4" t="n">
-        <v>790.4</v>
+        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/コンテンツ別累計推移表.xlsx
+++ b/コンテンツ別累計推移表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG4"/>
+  <dimension ref="A1:CO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,665 +441,575 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>aiga売上</t>
+          <t>aiga</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>aiga累計</t>
+          <t>aoki</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>aoki売上</t>
+          <t>aqua</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>aoki累計</t>
+          <t>aron</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>aqua売上</t>
+          <t>chigumi</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>aqua累計</t>
+          <t>chiharu</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>aron売上</t>
+          <t>ensei</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>aron累計</t>
+          <t>fujita</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>chigumi売上</t>
+          <t>gyoku</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>chigumi累計</t>
+          <t>hakuryu</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>chiharu売上</t>
+          <t>hayuki</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>chiharu累計</t>
+          <t>ikai</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ensei売上</t>
+          <t>jose</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>ensei累計</t>
+          <t>kairi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>fujita売上</t>
+          <t>kasya</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>fujita累計</t>
+          <t>keit</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>gyoku売上</t>
+          <t>kimyaku</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>gyoku累計</t>
+          <t>kirei</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hakuryu売上</t>
+          <t>klara</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>hakuryu累計</t>
+          <t>koyanagi</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>hayuki売上</t>
+          <t>lumiko</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>hayuki累計</t>
+          <t>maril</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>ikai売上</t>
+          <t>matsuyama-kairon</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>ikai累計</t>
+          <t>merisa</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>jose売上</t>
+          <t>miesha</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>jose累計</t>
+          <t>mikomaria</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>kairi売上</t>
+          <t>miku</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>kairi累計</t>
+          <t>miyoko-syufu</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>kasya売上</t>
+          <t>miyoko-tirol</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>kasya累計</t>
+          <t>narusawa</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>keit売上</t>
+          <t>niu</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>keit累計</t>
+          <t>noda</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>kimyaku売上</t>
+          <t>okac</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>kimyaku累計</t>
+          <t>ophelia</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>kirei売上</t>
+          <t>reirin</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>kirei累計</t>
+          <t>renri</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>klara売上</t>
+          <t>rie</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>klara累計</t>
+          <t>risui</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>koyanagi売上</t>
+          <t>shokita</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>koyanagi累計</t>
+          <t>sugano</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>lumiko売上</t>
+          <t>syuki</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>lumiko累計</t>
+          <t>tnoel</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>maril売上</t>
+          <t>tomoko</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>maril累計</t>
+          <t>tsukikage</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>matsuyama-kairon売上</t>
+          <t>yuki</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>matsuyama-kairon累計</t>
+          <t>yuki-osajima</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>merisa売上</t>
+          <t>asuru</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>merisa累計</t>
+          <t>chazz</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>miesha売上</t>
+          <t>tnoel-yeti</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>miesha累計</t>
+          <t>fujita-kairon</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>mikomaria売上</t>
+          <t>ikai-kairon</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>mikomaria累計</t>
+          <t>koyanagi-kairon</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>miku売上</t>
+          <t>lumiko-kairon</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>miku累計</t>
+          <t>matsuyama</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>miyoko-syufu売上</t>
+          <t>noda-kairon</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>miyoko-syufu累計</t>
+          <t>chiki</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>miyoko-tirol売上</t>
+          <t>dyg</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>miyoko-tirol累計</t>
+          <t>mian</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>narusawa売上</t>
+          <t>mokuren</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>narusawa累計</t>
+          <t>sashat</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>niu売上</t>
+          <t>epc</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>niu累計</t>
+          <t>gaia</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>noda売上</t>
+          <t>ichild</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>noda累計</t>
+          <t>macalon</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>okac売上</t>
+          <t>mermaid</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>okac累計</t>
+          <t>shape</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>ophelia売上</t>
+          <t>shintaku</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>ophelia累計</t>
+          <t>aizuki</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>reirin売上</t>
+          <t>etenmei</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>reirin累計</t>
+          <t>hoshikaze</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>renri売上</t>
+          <t>kiko</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>renri累計</t>
+          <t>lemurian</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>rie売上</t>
+          <t>amano</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>rie累計</t>
+          <t>takashima</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>risui売上</t>
+          <t>aron-motoduka</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>risui累計</t>
+          <t>ensei-motoduka</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>shokita売上</t>
+          <t>hayuki-motoduka</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>shokita累計</t>
+          <t>jose-motoduka</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>sugano売上</t>
+          <t>kairi-motoduka</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>sugano累計</t>
+          <t>keit-motoduka</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>syuki売上</t>
+          <t>maril-motoduka</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>syuki累計</t>
+          <t>mikomaria-motoduka</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>tnoel売上</t>
+          <t>niu-motoduka</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>tnoel累計</t>
+          <t>reirin-motoduka</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>tomoko売上</t>
+          <t>renri-motozuka</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>tomoko累計</t>
+          <t>syuki-motoduka</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>tsukikage売上</t>
+          <t>tsukikage-motoduka</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>tsukikage累計</t>
+          <t>keiko</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>yuki売上</t>
+          <t>kmo2</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>yuki累計</t>
+          <t>luna</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>yuki-osajima売上</t>
+          <t>mlo</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>yuki-osajima累計</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>あする売上</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>あする累計</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>イエティ売上</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>イエティ累計</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>カイロン売上</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>カイロン累計</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>ハーメア売上</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>ハーメア累計</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>ビジョナリー売上</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>ビジョナリー累計</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>レッスン売上</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>レッスン累計</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>大熊売上</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>大熊累計</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>有泉恵子売上</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>有泉恵子累計</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>本塚売上</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>本塚累計</t>
+          <t>pof</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>202412</t>
+          <t>202507</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="C2" t="n">
-        <v>339</v>
+        <v>680</v>
       </c>
       <c r="D2" t="n">
-        <v>958</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>958</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>112</v>
+      </c>
+      <c r="I2" t="n">
         <v>166</v>
       </c>
-      <c r="G2" t="n">
-        <v>166</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2094</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>2094</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
@@ -1111,275 +1021,221 @@
         <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="BF2" t="n">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="BG2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BH2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="BI2" t="n">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BK2" t="n">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="BM2" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>8282</v>
       </c>
       <c r="BP2" t="n">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BR2" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY2" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="CA2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="CB2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="CC2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="CD2" t="n">
         <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="CH2" t="n">
         <v>0</v>
       </c>
       <c r="CI2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="CK2" t="n">
-        <v>0</v>
+        <v>2595</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="CN2" t="n">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1020</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>1020</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>202507</t>
+          <t>202508</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>414</v>
+        <v>72</v>
       </c>
       <c r="C3" t="n">
-        <v>753</v>
+        <v>102</v>
       </c>
       <c r="D3" t="n">
-        <v>750</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
-        <v>1708</v>
+        <v>108</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
+        <v>63</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="n">
-        <v>124</v>
-      </c>
-      <c r="O3" t="n">
-        <v>124</v>
-      </c>
       <c r="P3" t="n">
-        <v>183</v>
+        <v>411</v>
       </c>
       <c r="Q3" t="n">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1388,617 +1244,226 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="V3" t="n">
+        <v>295</v>
+      </c>
+      <c r="W3" t="n">
+        <v>113</v>
+      </c>
+      <c r="X3" t="n">
+        <v>69</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1868</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1868</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>182</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>231</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>455</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>86</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>73</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>210</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>299</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>249</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>241</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>219</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>160</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>200</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>35</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>47</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>57</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>249</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>768</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>78</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>803</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>176</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>767</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>189</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1156</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1132</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>5108</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>167</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>198</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>432</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>160</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>228</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>127</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>36</v>
+      </c>
+      <c r="BY3" t="n">
         <v>48</v>
       </c>
-      <c r="W3" t="n">
-        <v>48</v>
-      </c>
-      <c r="X3" t="n">
-        <v>274</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>274</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>193</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>193</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>159</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>159</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>38</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>20</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>77</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>26</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>80</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>2044</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>226</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>151</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>689</v>
+      </c>
+      <c r="CO3" t="n">
         <v>68</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>68</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>213</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>213</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>63</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>63</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>145</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>145</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>11</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>246</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>246</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>2094</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>2094</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>2094</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>2094</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>45</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>45</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>230</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>230</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>179</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>179</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>469</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>469</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>362</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>362</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>39</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>39</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>83</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>83</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>239</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>239</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>76</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>76</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>70</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>70</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>173</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>173</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>19</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>19</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>12</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>12</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>135</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>135</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>188</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>188</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>193</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>193</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>2511</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>2511</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>11595</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>11595</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>451</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>1471</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>210</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>210</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>4731</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>4731</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>506</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>202508</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>79</v>
-      </c>
-      <c r="C4" t="n">
-        <v>832</v>
-      </c>
-      <c r="D4" t="n">
-        <v>113</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1821</v>
-      </c>
-      <c r="F4" t="n">
-        <v>45</v>
-      </c>
-      <c r="G4" t="n">
-        <v>213</v>
-      </c>
-      <c r="H4" t="n">
-        <v>119</v>
-      </c>
-      <c r="I4" t="n">
-        <v>122</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39</v>
-      </c>
-      <c r="K4" t="n">
-        <v>39</v>
-      </c>
-      <c r="L4" t="n">
-        <v>84</v>
-      </c>
-      <c r="M4" t="n">
-        <v>85</v>
-      </c>
-      <c r="N4" t="n">
-        <v>161</v>
-      </c>
-      <c r="O4" t="n">
-        <v>285</v>
-      </c>
-      <c r="P4" t="n">
-        <v>189</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>372</v>
-      </c>
-      <c r="R4" t="n">
-        <v>212</v>
-      </c>
-      <c r="S4" t="n">
-        <v>212</v>
-      </c>
-      <c r="T4" t="n">
-        <v>135</v>
-      </c>
-      <c r="U4" t="n">
-        <v>445</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>49</v>
-      </c>
-      <c r="X4" t="n">
-        <v>69</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>343</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>78</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>194</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>411</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>570</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>125</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>193</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>213</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>227</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>290</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>325</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>392</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>113</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>142</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>69</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>169</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>64</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>75</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>103</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>349</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>1868</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>3962</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>1868</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>3962</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>201</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>246</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>255</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>485</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>180</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>502</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>971</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>86</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>448</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>80</v>
-      </c>
-      <c r="BW4" t="n">
-        <v>80</v>
-      </c>
-      <c r="BX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>232</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>271</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>330</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>413</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>240</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>35</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>111</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>274</v>
-      </c>
-      <c r="CI4" t="n">
-        <v>344</v>
-      </c>
-      <c r="CJ4" t="n">
-        <v>266</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>439</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>241</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>260</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>159</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>171</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>114</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>249</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>235</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>423</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>477</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>670</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>2326</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>4837</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>8519</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>8519</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>1019</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>2490</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>127</v>
-      </c>
-      <c r="DC4" t="n">
-        <v>337</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>3502</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>8233</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>360</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>866</v>
       </c>
     </row>
   </sheetData>
